--- a/cw/reportfiles/reportready-hidden-1000epochs.xlsx
+++ b/cw/reportfiles/reportready-hidden-1000epochs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ardadogan/Documents/code/AI/semester2/cw/reportfiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ED41081-6DF6-9A4C-9996-D97F285B9DFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BB7F377-BB82-4D45-A6AF-CBFF402CC32D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -620,7 +620,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> of number of hidden nodes on MSE</a:t>
+              <a:t> of number of hidden nodes on MSE (1000 epochs)</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -2096,7 +2096,7 @@
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+      <selection activeCell="Q20" sqref="Q20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
